--- a/Code/Results/Cases/Case_2_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_95/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019027407208063</v>
+        <v>1.07026449749202</v>
       </c>
       <c r="D2">
-        <v>1.037179703677241</v>
+        <v>1.071470147854364</v>
       </c>
       <c r="E2">
-        <v>1.023839888619679</v>
+        <v>1.070553816562493</v>
       </c>
       <c r="F2">
-        <v>1.037595007460297</v>
+        <v>1.082171881303255</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055389808264597</v>
+        <v>1.049378931519855</v>
       </c>
       <c r="J2">
-        <v>1.040653532987629</v>
+        <v>1.075195032521656</v>
       </c>
       <c r="K2">
-        <v>1.048144271878434</v>
+        <v>1.074167235954113</v>
       </c>
       <c r="L2">
-        <v>1.034976793971949</v>
+        <v>1.073253345669517</v>
       </c>
       <c r="M2">
-        <v>1.048554299177648</v>
+        <v>1.084840791683628</v>
       </c>
       <c r="N2">
-        <v>1.0421313803691</v>
+        <v>1.076721932794431</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029143919325343</v>
+        <v>1.072131569787574</v>
       </c>
       <c r="D3">
-        <v>1.045268731198894</v>
+        <v>1.072956551518532</v>
       </c>
       <c r="E3">
-        <v>1.03220635673874</v>
+        <v>1.072111763763225</v>
       </c>
       <c r="F3">
-        <v>1.046447899815856</v>
+        <v>1.083832384195884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059013803854032</v>
+        <v>1.049905366561712</v>
       </c>
       <c r="J3">
-        <v>1.048870435649845</v>
+        <v>1.076715272861319</v>
       </c>
       <c r="K3">
-        <v>1.055353388987473</v>
+        <v>1.075468545688602</v>
       </c>
       <c r="L3">
-        <v>1.042443090090521</v>
+        <v>1.074625843368958</v>
       </c>
       <c r="M3">
-        <v>1.056519060002079</v>
+        <v>1.086317842483198</v>
       </c>
       <c r="N3">
-        <v>1.050359951975588</v>
+        <v>1.07824433204975</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.035436247321014</v>
+        <v>1.073336157406555</v>
       </c>
       <c r="D4">
-        <v>1.050301743107822</v>
+        <v>1.073915047903025</v>
       </c>
       <c r="E4">
-        <v>1.03740938536152</v>
+        <v>1.073115915354505</v>
       </c>
       <c r="F4">
-        <v>1.051957461815281</v>
+        <v>1.084903340051445</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061250747987103</v>
+        <v>1.050242886565995</v>
       </c>
       <c r="J4">
-        <v>1.053974963528535</v>
+        <v>1.077695154419192</v>
       </c>
       <c r="K4">
-        <v>1.059828732296743</v>
+        <v>1.076306765006487</v>
       </c>
       <c r="L4">
-        <v>1.047076341137557</v>
+        <v>1.075509504570381</v>
       </c>
       <c r="M4">
-        <v>1.061466780011738</v>
+        <v>1.087269614830596</v>
       </c>
       <c r="N4">
-        <v>1.055471728869363</v>
+        <v>1.079225605151829</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038025292648084</v>
+        <v>1.073841739359419</v>
       </c>
       <c r="D5">
-        <v>1.052372888684816</v>
+        <v>1.07431722267073</v>
       </c>
       <c r="E5">
-        <v>1.039549884014548</v>
+        <v>1.073537132982751</v>
       </c>
       <c r="F5">
-        <v>1.054225048002895</v>
+        <v>1.08535274855364</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062166971368522</v>
+        <v>1.050384039690757</v>
       </c>
       <c r="J5">
-        <v>1.056073691508293</v>
+        <v>1.078106198958757</v>
       </c>
       <c r="K5">
-        <v>1.061667981876264</v>
+        <v>1.076658252646461</v>
       </c>
       <c r="L5">
-        <v>1.048980068829431</v>
+        <v>1.075879949250487</v>
       </c>
       <c r="M5">
-        <v>1.06350096001199</v>
+        <v>1.087668803213616</v>
       </c>
       <c r="N5">
-        <v>1.05757343728358</v>
+        <v>1.079637233421787</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038456827296726</v>
+        <v>1.07392658086902</v>
       </c>
       <c r="D6">
-        <v>1.052718112159876</v>
+        <v>1.074384704428985</v>
       </c>
       <c r="E6">
-        <v>1.039906631942211</v>
+        <v>1.073607803354584</v>
       </c>
       <c r="F6">
-        <v>1.054603035181055</v>
+        <v>1.085428158536999</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062319436014698</v>
+        <v>1.050407696693388</v>
       </c>
       <c r="J6">
-        <v>1.056423406065411</v>
+        <v>1.078175162961796</v>
       </c>
       <c r="K6">
-        <v>1.061974411604112</v>
+        <v>1.076717216597246</v>
       </c>
       <c r="L6">
-        <v>1.049297216482364</v>
+        <v>1.075942087627271</v>
       </c>
       <c r="M6">
-        <v>1.063839913400645</v>
+        <v>1.087735774223558</v>
       </c>
       <c r="N6">
-        <v>1.057923648475482</v>
+        <v>1.079706295361622</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035471057739823</v>
+        <v>1.07334291623964</v>
       </c>
       <c r="D7">
-        <v>1.050329589396864</v>
+        <v>1.073920424815839</v>
       </c>
       <c r="E7">
-        <v>1.037438166495352</v>
+        <v>1.073121547307699</v>
       </c>
       <c r="F7">
-        <v>1.051987947859073</v>
+        <v>1.084909348274405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061263083581299</v>
+        <v>1.050244775561111</v>
       </c>
       <c r="J7">
-        <v>1.054003187879792</v>
+        <v>1.077700650322155</v>
       </c>
       <c r="K7">
-        <v>1.059853470280356</v>
+        <v>1.076311465118464</v>
       </c>
       <c r="L7">
-        <v>1.047101948008715</v>
+        <v>1.075514458561031</v>
       </c>
       <c r="M7">
-        <v>1.061494136647685</v>
+        <v>1.087274952464567</v>
       </c>
       <c r="N7">
-        <v>1.055499993302436</v>
+        <v>1.079231108859605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022501746399468</v>
+        <v>1.070896226415888</v>
       </c>
       <c r="D8">
-        <v>1.039957261675937</v>
+        <v>1.071973178206299</v>
       </c>
       <c r="E8">
-        <v>1.026713274692547</v>
+        <v>1.07108115887175</v>
       </c>
       <c r="F8">
-        <v>1.040634604919894</v>
+        <v>1.082733790942285</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056637992548926</v>
+        <v>1.049557492280041</v>
       </c>
       <c r="J8">
-        <v>1.043476764035187</v>
+        <v>1.075709604461412</v>
       </c>
       <c r="K8">
-        <v>1.050621878648542</v>
+        <v>1.07460781782897</v>
       </c>
       <c r="L8">
-        <v>1.037543158372743</v>
+        <v>1.073718115774226</v>
       </c>
       <c r="M8">
-        <v>1.051290910237706</v>
+        <v>1.085340801142321</v>
       </c>
       <c r="N8">
-        <v>1.044958620728575</v>
+        <v>1.077237235485363</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9974697285784901</v>
+        <v>1.066556924537604</v>
       </c>
       <c r="D9">
-        <v>1.019961097099117</v>
+        <v>1.068515909396623</v>
       </c>
       <c r="E9">
-        <v>1.006015227537735</v>
+        <v>1.067454775272868</v>
       </c>
       <c r="F9">
-        <v>1.018756260342125</v>
+        <v>1.078872617288866</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0475733327704</v>
+        <v>1.048322239727794</v>
       </c>
       <c r="J9">
-        <v>1.023112154742298</v>
+        <v>1.072171191183766</v>
       </c>
       <c r="K9">
-        <v>1.032738413049341</v>
+        <v>1.071575941119528</v>
       </c>
       <c r="L9">
-        <v>1.019011459960868</v>
+        <v>1.070518045877079</v>
       </c>
       <c r="M9">
-        <v>1.031552187199121</v>
+        <v>1.081901401939853</v>
       </c>
       <c r="N9">
-        <v>1.024565091354636</v>
+        <v>1.073693797255002</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9789215337934492</v>
+        <v>1.063644070042692</v>
       </c>
       <c r="D10">
-        <v>1.005175619937909</v>
+        <v>1.066192686752266</v>
       </c>
       <c r="E10">
-        <v>0.9906949581312821</v>
+        <v>1.065015319177091</v>
       </c>
       <c r="F10">
-        <v>1.002583060954011</v>
+        <v>1.076278909692075</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040768844092887</v>
+        <v>1.047482082700026</v>
       </c>
       <c r="J10">
-        <v>1.007997150866274</v>
+        <v>1.069791118424632</v>
       </c>
       <c r="K10">
-        <v>1.019452051546749</v>
+        <v>1.069533768855633</v>
       </c>
       <c r="L10">
-        <v>1.005234275257013</v>
+        <v>1.068360354895853</v>
       </c>
       <c r="M10">
-        <v>1.01690583353209</v>
+        <v>1.07958651093625</v>
       </c>
       <c r="N10">
-        <v>1.009428622439393</v>
+        <v>1.071310344519551</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9703345087337755</v>
+        <v>1.062377759455385</v>
       </c>
       <c r="D11">
-        <v>0.9983423017254848</v>
+        <v>1.065182141650657</v>
       </c>
       <c r="E11">
-        <v>0.9836107366997314</v>
+        <v>1.063953585570877</v>
       </c>
       <c r="F11">
-        <v>0.9951087961805218</v>
+        <v>1.075150921322787</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037599738014862</v>
+        <v>1.047114244191853</v>
       </c>
       <c r="J11">
-        <v>1.000995688052989</v>
+        <v>1.068755283783097</v>
       </c>
       <c r="K11">
-        <v>1.013295547664228</v>
+        <v>1.068644329746528</v>
       </c>
       <c r="L11">
-        <v>0.9988484935223418</v>
+        <v>1.067420062678542</v>
       </c>
       <c r="M11">
-        <v>1.010123546709975</v>
+        <v>1.078578706115828</v>
       </c>
       <c r="N11">
-        <v>1.002417216745835</v>
+        <v>1.070273038874013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9670491086752649</v>
+        <v>1.061906616759626</v>
       </c>
       <c r="D12">
-        <v>0.9957300825032614</v>
+        <v>1.064806075133513</v>
       </c>
       <c r="E12">
-        <v>0.9809020586287619</v>
+        <v>1.063558373769193</v>
       </c>
       <c r="F12">
-        <v>0.9922515701987584</v>
+        <v>1.0747311800889</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036384603254175</v>
+        <v>1.046976996959126</v>
       </c>
       <c r="J12">
-        <v>0.9983165751055851</v>
+        <v>1.06836972079072</v>
       </c>
       <c r="K12">
-        <v>1.010939547165959</v>
+        <v>1.068313159640631</v>
       </c>
       <c r="L12">
-        <v>0.996404525253341</v>
+        <v>1.067069875943227</v>
       </c>
       <c r="M12">
-        <v>1.007528738860929</v>
+        <v>1.078203525609089</v>
       </c>
       <c r="N12">
-        <v>0.9997342991507467</v>
+        <v>1.069886928337963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9677584007904682</v>
+        <v>1.062007714080202</v>
       </c>
       <c r="D13">
-        <v>0.9962939323873773</v>
+        <v>1.064886774872742</v>
       </c>
       <c r="E13">
-        <v>0.981486753303494</v>
+        <v>1.06364318623369</v>
       </c>
       <c r="F13">
-        <v>0.9928683052777696</v>
+        <v>1.074821250558152</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03664705617089</v>
+        <v>1.047006464943476</v>
       </c>
       <c r="J13">
-        <v>0.9988949861542665</v>
+        <v>1.068452462236073</v>
       </c>
       <c r="K13">
-        <v>1.011448207047027</v>
+        <v>1.068384232901828</v>
       </c>
       <c r="L13">
-        <v>0.9969321865191002</v>
+        <v>1.067145034145443</v>
       </c>
       <c r="M13">
-        <v>1.00808892675007</v>
+        <v>1.078284041287488</v>
       </c>
       <c r="N13">
-        <v>1.000313531609462</v>
+        <v>1.069969787285659</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9700649717341804</v>
+        <v>1.062338830672978</v>
       </c>
       <c r="D14">
-        <v>0.998127945488095</v>
+        <v>1.06515107036227</v>
       </c>
       <c r="E14">
-        <v>0.9833884759800742</v>
+        <v>1.063920934426843</v>
       </c>
       <c r="F14">
-        <v>0.9948743349639804</v>
+        <v>1.075116240926298</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037500099189979</v>
+        <v>1.04710291189773</v>
       </c>
       <c r="J14">
-        <v>1.000775896943233</v>
+        <v>1.068723429620351</v>
       </c>
       <c r="K14">
-        <v>1.013102267914625</v>
+        <v>1.068616971393697</v>
       </c>
       <c r="L14">
-        <v>0.9986480013528686</v>
+        <v>1.067391135020572</v>
       </c>
       <c r="M14">
-        <v>1.009910662243483</v>
+        <v>1.078547710764022</v>
       </c>
       <c r="N14">
-        <v>1.002197113507493</v>
+        <v>1.070241139474703</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9714730176670389</v>
+        <v>1.062542738657062</v>
       </c>
       <c r="D15">
-        <v>0.999247822620126</v>
+        <v>1.065313817569957</v>
       </c>
       <c r="E15">
-        <v>0.9845496272007643</v>
+        <v>1.064091952773823</v>
       </c>
       <c r="F15">
-        <v>0.9960992482225055</v>
+        <v>1.075297893413162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038020501547237</v>
+        <v>1.047162254233178</v>
       </c>
       <c r="J15">
-        <v>1.001924060511811</v>
+        <v>1.068890273927719</v>
       </c>
       <c r="K15">
-        <v>1.014111931278911</v>
+        <v>1.068760263696353</v>
       </c>
       <c r="L15">
-        <v>0.9996953324644754</v>
+        <v>1.067542643358461</v>
       </c>
       <c r="M15">
-        <v>1.011022764793023</v>
+        <v>1.078710054746536</v>
       </c>
       <c r="N15">
-        <v>1.003346907600034</v>
+        <v>1.070408220720124</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9794787278773613</v>
+        <v>1.063728003023515</v>
       </c>
       <c r="D16">
-        <v>1.005619295530054</v>
+        <v>1.066259655409875</v>
       </c>
       <c r="E16">
-        <v>0.9911548488383013</v>
+        <v>1.065085666735491</v>
       </c>
       <c r="F16">
-        <v>1.003068356460915</v>
+        <v>1.076353665664298</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04097410962621</v>
+        <v>1.047506409033854</v>
       </c>
       <c r="J16">
-        <v>1.008451400173396</v>
+        <v>1.069859751140892</v>
       </c>
       <c r="K16">
-        <v>1.019851445869376</v>
+        <v>1.069592687747196</v>
       </c>
       <c r="L16">
-        <v>1.005648509603813</v>
+        <v>1.068422630990377</v>
       </c>
       <c r="M16">
-        <v>1.01734591533907</v>
+        <v>1.079653279324749</v>
       </c>
       <c r="N16">
-        <v>1.009883516832635</v>
+        <v>1.071379074702141</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9843438454207968</v>
+        <v>1.064470126079297</v>
       </c>
       <c r="D17">
-        <v>1.009494582125779</v>
+        <v>1.066851717301764</v>
       </c>
       <c r="E17">
-        <v>0.9951713494009836</v>
+        <v>1.065707528343475</v>
       </c>
       <c r="F17">
-        <v>1.007307212389675</v>
+        <v>1.077014598496107</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04276429024867</v>
+        <v>1.047721199736681</v>
       </c>
       <c r="J17">
-        <v>1.012417251979351</v>
+        <v>1.070466459998974</v>
       </c>
       <c r="K17">
-        <v>1.023338160026694</v>
+        <v>1.070113450723561</v>
       </c>
       <c r="L17">
-        <v>1.00926457538916</v>
+        <v>1.068973004698657</v>
       </c>
       <c r="M17">
-        <v>1.021188321381911</v>
+        <v>1.080243468683089</v>
       </c>
       <c r="N17">
-        <v>1.013855000603043</v>
+        <v>1.071986645156392</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9871289412522435</v>
+        <v>1.064902510633174</v>
       </c>
       <c r="D18">
-        <v>1.011714091331225</v>
+        <v>1.067196616842611</v>
       </c>
       <c r="E18">
-        <v>0.9974713878814792</v>
+        <v>1.066069726882538</v>
       </c>
       <c r="F18">
-        <v>1.009734991380786</v>
+        <v>1.077399638458381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043787333530167</v>
+        <v>1.04784609377944</v>
       </c>
       <c r="J18">
-        <v>1.014687178031685</v>
+        <v>1.070819838041619</v>
       </c>
       <c r="K18">
-        <v>1.025333642026446</v>
+        <v>1.070416705753548</v>
       </c>
       <c r="L18">
-        <v>1.01133391167891</v>
+        <v>1.069293450983374</v>
       </c>
       <c r="M18">
-        <v>1.023387775641917</v>
+        <v>1.08058719242205</v>
       </c>
       <c r="N18">
-        <v>1.016128150210736</v>
+        <v>1.07234052503639</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9880699908474844</v>
+        <v>1.065049861329647</v>
       </c>
       <c r="D19">
-        <v>1.012464203195694</v>
+        <v>1.06731414455273</v>
       </c>
       <c r="E19">
-        <v>0.9982486562113366</v>
+        <v>1.066193139159675</v>
       </c>
       <c r="F19">
-        <v>1.010555499089195</v>
+        <v>1.077530847868212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044132701956471</v>
+        <v>1.047888613551735</v>
       </c>
       <c r="J19">
-        <v>1.015454088638989</v>
+        <v>1.070940245757167</v>
       </c>
       <c r="K19">
-        <v>1.026007792956527</v>
+        <v>1.070520024053409</v>
       </c>
       <c r="L19">
-        <v>1.01203298260276</v>
+        <v>1.069402617529032</v>
       </c>
       <c r="M19">
-        <v>1.02413090501569</v>
+        <v>1.080704305083148</v>
       </c>
       <c r="N19">
-        <v>1.016896149919068</v>
+        <v>1.072461103744705</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9838273905209874</v>
+        <v>1.064390553455334</v>
       </c>
       <c r="D20">
-        <v>1.009083089693879</v>
+        <v>1.066788240318607</v>
       </c>
       <c r="E20">
-        <v>0.99474489859671</v>
+        <v>1.06564086270266</v>
       </c>
       <c r="F20">
-        <v>1.006857110849642</v>
+        <v>1.076943735521926</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042574437022733</v>
+        <v>1.04769819509678</v>
       </c>
       <c r="J20">
-        <v>1.011996295842162</v>
+        <v>1.070401418252392</v>
       </c>
       <c r="K20">
-        <v>1.022968082341129</v>
+        <v>1.07005762933404</v>
       </c>
       <c r="L20">
-        <v>1.008880786341359</v>
+        <v>1.068914014669069</v>
       </c>
       <c r="M20">
-        <v>1.020780448415623</v>
+        <v>1.080180201261719</v>
       </c>
       <c r="N20">
-        <v>1.013433446659855</v>
+        <v>1.071921511043069</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.96938850112269</v>
+        <v>1.06224134677208</v>
       </c>
       <c r="D21">
-        <v>0.9975900019608708</v>
+        <v>1.065073261535774</v>
       </c>
       <c r="E21">
-        <v>0.9828306869046964</v>
+        <v>1.06383916776799</v>
       </c>
       <c r="F21">
-        <v>0.9942859364643515</v>
+        <v>1.075029394654819</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037249989163302</v>
+        <v>1.047074527732226</v>
       </c>
       <c r="J21">
-        <v>1.000224271358028</v>
+        <v>1.068643658939014</v>
       </c>
       <c r="K21">
-        <v>1.012617176792882</v>
+        <v>1.068548457730646</v>
       </c>
       <c r="L21">
-        <v>0.9981448051658072</v>
+        <v>1.067318690008333</v>
       </c>
       <c r="M21">
-        <v>1.009376378239482</v>
+        <v>1.078470089934926</v>
       </c>
       <c r="N21">
-        <v>1.001644704550684</v>
+        <v>1.070161255509848</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.959747692955348</v>
+        <v>1.060885538820013</v>
       </c>
       <c r="D22">
-        <v>0.9899294156143738</v>
+        <v>1.063990897974751</v>
       </c>
       <c r="E22">
-        <v>0.9748862235375807</v>
+        <v>1.062701519657724</v>
       </c>
       <c r="F22">
-        <v>0.9859068095352819</v>
+        <v>1.073821387448255</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033679497105882</v>
+        <v>1.046678837440549</v>
       </c>
       <c r="J22">
-        <v>0.992362213636426</v>
+        <v>1.067533801856606</v>
       </c>
       <c r="K22">
-        <v>1.005703047829483</v>
+        <v>1.067594986139868</v>
       </c>
       <c r="L22">
-        <v>0.990972163809838</v>
+        <v>1.066310311570356</v>
       </c>
       <c r="M22">
-        <v>1.00176272234744</v>
+        <v>1.077390023111017</v>
       </c>
       <c r="N22">
-        <v>0.9937714818053264</v>
+        <v>1.069049822303081</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9649166575904941</v>
+        <v>1.061604714316607</v>
       </c>
       <c r="D23">
-        <v>0.9940352601998269</v>
+        <v>1.064565072917748</v>
       </c>
       <c r="E23">
-        <v>0.9791445035385851</v>
+        <v>1.063305075147704</v>
       </c>
       <c r="F23">
-        <v>0.9903977832237286</v>
+        <v>1.074462197524609</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035595184099955</v>
+        <v>1.0468889410274</v>
       </c>
       <c r="J23">
-        <v>0.9965775805787906</v>
+        <v>1.06812260867195</v>
       </c>
       <c r="K23">
-        <v>1.009410237782773</v>
+        <v>1.068100880748855</v>
       </c>
       <c r="L23">
-        <v>0.9948180592938822</v>
+        <v>1.066845384195333</v>
       </c>
       <c r="M23">
-        <v>1.005844607653325</v>
+        <v>1.077963053409858</v>
       </c>
       <c r="N23">
-        <v>0.9979928350522589</v>
+        <v>1.06963946529164</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9840609160418277</v>
+        <v>1.064426510391643</v>
       </c>
       <c r="D24">
-        <v>1.009269151062402</v>
+        <v>1.06681692419462</v>
       </c>
       <c r="E24">
-        <v>0.9949377246646265</v>
+        <v>1.065670987651137</v>
       </c>
       <c r="F24">
-        <v>1.007060629669792</v>
+        <v>1.076975756904526</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042660288515584</v>
+        <v>1.047708591107437</v>
       </c>
       <c r="J24">
-        <v>1.012186640849088</v>
+        <v>1.070430809377862</v>
       </c>
       <c r="K24">
-        <v>1.023135422118675</v>
+        <v>1.070082854153122</v>
       </c>
       <c r="L24">
-        <v>1.00905432659885</v>
+        <v>1.068940671507853</v>
       </c>
       <c r="M24">
-        <v>1.020964876999431</v>
+        <v>1.080208790703959</v>
       </c>
       <c r="N24">
-        <v>1.013624061978524</v>
+        <v>1.071950943907309</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.0042358434114</v>
+        <v>1.067682170979499</v>
       </c>
       <c r="D25">
-        <v>1.025361982961714</v>
+        <v>1.069412867491277</v>
       </c>
       <c r="E25">
-        <v>1.011608316741932</v>
+        <v>1.06839605867154</v>
       </c>
       <c r="F25">
-        <v>1.024664684596946</v>
+        <v>1.079874197958879</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050038723535537</v>
+        <v>1.048644487803738</v>
       </c>
       <c r="J25">
-        <v>1.028621490612461</v>
+        <v>1.073089605919853</v>
       </c>
       <c r="K25">
-        <v>1.037578942929943</v>
+        <v>1.07236337743834</v>
       </c>
       <c r="L25">
-        <v>1.02402906211214</v>
+        <v>1.071349552262397</v>
       </c>
       <c r="M25">
-        <v>1.036891809271298</v>
+        <v>1.082794365580376</v>
       </c>
       <c r="N25">
-        <v>1.030082251113665</v>
+        <v>1.074613516245357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_95/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_95/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.07026449749202</v>
+        <v>1.019027407208063</v>
       </c>
       <c r="D2">
-        <v>1.071470147854364</v>
+        <v>1.03717970367724</v>
       </c>
       <c r="E2">
-        <v>1.070553816562493</v>
+        <v>1.023839888619678</v>
       </c>
       <c r="F2">
-        <v>1.082171881303255</v>
+        <v>1.037595007460296</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049378931519855</v>
+        <v>1.055389808264596</v>
       </c>
       <c r="J2">
-        <v>1.075195032521656</v>
+        <v>1.040653532987629</v>
       </c>
       <c r="K2">
-        <v>1.074167235954113</v>
+        <v>1.048144271878433</v>
       </c>
       <c r="L2">
-        <v>1.073253345669517</v>
+        <v>1.034976793971948</v>
       </c>
       <c r="M2">
-        <v>1.084840791683628</v>
+        <v>1.048554299177646</v>
       </c>
       <c r="N2">
-        <v>1.076721932794431</v>
+        <v>1.0421313803691</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.072131569787574</v>
+        <v>1.029143919325344</v>
       </c>
       <c r="D3">
-        <v>1.072956551518532</v>
+        <v>1.045268731198894</v>
       </c>
       <c r="E3">
-        <v>1.072111763763225</v>
+        <v>1.032206356738741</v>
       </c>
       <c r="F3">
-        <v>1.083832384195884</v>
+        <v>1.046447899815856</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049905366561712</v>
+        <v>1.059013803854033</v>
       </c>
       <c r="J3">
-        <v>1.076715272861319</v>
+        <v>1.048870435649846</v>
       </c>
       <c r="K3">
-        <v>1.075468545688602</v>
+        <v>1.055353388987474</v>
       </c>
       <c r="L3">
-        <v>1.074625843368958</v>
+        <v>1.042443090090522</v>
       </c>
       <c r="M3">
-        <v>1.086317842483198</v>
+        <v>1.05651906000208</v>
       </c>
       <c r="N3">
-        <v>1.07824433204975</v>
+        <v>1.050359951975589</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.073336157406555</v>
+        <v>1.035436247321013</v>
       </c>
       <c r="D4">
-        <v>1.073915047903025</v>
+        <v>1.05030174310782</v>
       </c>
       <c r="E4">
-        <v>1.073115915354505</v>
+        <v>1.037409385361519</v>
       </c>
       <c r="F4">
-        <v>1.084903340051445</v>
+        <v>1.051957461815279</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050242886565995</v>
+        <v>1.061250747987102</v>
       </c>
       <c r="J4">
-        <v>1.077695154419192</v>
+        <v>1.053974963528533</v>
       </c>
       <c r="K4">
-        <v>1.076306765006487</v>
+        <v>1.059828732296741</v>
       </c>
       <c r="L4">
-        <v>1.075509504570381</v>
+        <v>1.047076341137555</v>
       </c>
       <c r="M4">
-        <v>1.087269614830596</v>
+        <v>1.061466780011736</v>
       </c>
       <c r="N4">
-        <v>1.079225605151829</v>
+        <v>1.055471728869362</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073841739359419</v>
+        <v>1.038025292648086</v>
       </c>
       <c r="D5">
-        <v>1.07431722267073</v>
+        <v>1.052372888684818</v>
       </c>
       <c r="E5">
-        <v>1.073537132982751</v>
+        <v>1.039549884014549</v>
       </c>
       <c r="F5">
-        <v>1.08535274855364</v>
+        <v>1.054225048002897</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050384039690757</v>
+        <v>1.062166971368523</v>
       </c>
       <c r="J5">
-        <v>1.078106198958757</v>
+        <v>1.056073691508294</v>
       </c>
       <c r="K5">
-        <v>1.076658252646461</v>
+        <v>1.061667981876266</v>
       </c>
       <c r="L5">
-        <v>1.075879949250487</v>
+        <v>1.048980068829433</v>
       </c>
       <c r="M5">
-        <v>1.087668803213616</v>
+        <v>1.063500960011992</v>
       </c>
       <c r="N5">
-        <v>1.079637233421787</v>
+        <v>1.057573437283582</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07392658086902</v>
+        <v>1.038456827296726</v>
       </c>
       <c r="D6">
-        <v>1.074384704428985</v>
+        <v>1.052718112159875</v>
       </c>
       <c r="E6">
-        <v>1.073607803354584</v>
+        <v>1.039906631942211</v>
       </c>
       <c r="F6">
-        <v>1.085428158536999</v>
+        <v>1.054603035181055</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050407696693388</v>
+        <v>1.062319436014698</v>
       </c>
       <c r="J6">
-        <v>1.078175162961796</v>
+        <v>1.056423406065411</v>
       </c>
       <c r="K6">
-        <v>1.076717216597246</v>
+        <v>1.061974411604112</v>
       </c>
       <c r="L6">
-        <v>1.075942087627271</v>
+        <v>1.049297216482364</v>
       </c>
       <c r="M6">
-        <v>1.087735774223558</v>
+        <v>1.063839913400645</v>
       </c>
       <c r="N6">
-        <v>1.079706295361622</v>
+        <v>1.057923648475482</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07334291623964</v>
+        <v>1.035471057739822</v>
       </c>
       <c r="D7">
-        <v>1.073920424815839</v>
+        <v>1.050329589396864</v>
       </c>
       <c r="E7">
-        <v>1.073121547307699</v>
+        <v>1.037438166495351</v>
       </c>
       <c r="F7">
-        <v>1.084909348274405</v>
+        <v>1.051987947859071</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050244775561111</v>
+        <v>1.061263083581299</v>
       </c>
       <c r="J7">
-        <v>1.077700650322155</v>
+        <v>1.054003187879791</v>
       </c>
       <c r="K7">
-        <v>1.076311465118464</v>
+        <v>1.059853470280355</v>
       </c>
       <c r="L7">
-        <v>1.075514458561031</v>
+        <v>1.047101948008714</v>
       </c>
       <c r="M7">
-        <v>1.087274952464567</v>
+        <v>1.061494136647684</v>
       </c>
       <c r="N7">
-        <v>1.079231108859605</v>
+        <v>1.055499993302436</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070896226415888</v>
+        <v>1.022501746399465</v>
       </c>
       <c r="D8">
-        <v>1.071973178206299</v>
+        <v>1.039957261675934</v>
       </c>
       <c r="E8">
-        <v>1.07108115887175</v>
+        <v>1.026713274692544</v>
       </c>
       <c r="F8">
-        <v>1.082733790942285</v>
+        <v>1.040634604919891</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049557492280041</v>
+        <v>1.056637992548924</v>
       </c>
       <c r="J8">
-        <v>1.075709604461412</v>
+        <v>1.043476764035184</v>
       </c>
       <c r="K8">
-        <v>1.07460781782897</v>
+        <v>1.050621878648539</v>
       </c>
       <c r="L8">
-        <v>1.073718115774226</v>
+        <v>1.037543158372741</v>
       </c>
       <c r="M8">
-        <v>1.085340801142321</v>
+        <v>1.051290910237704</v>
       </c>
       <c r="N8">
-        <v>1.077237235485363</v>
+        <v>1.044958620728571</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066556924537604</v>
+        <v>0.9974697285784866</v>
       </c>
       <c r="D9">
-        <v>1.068515909396623</v>
+        <v>1.019961097099114</v>
       </c>
       <c r="E9">
-        <v>1.067454775272868</v>
+        <v>1.006015227537733</v>
       </c>
       <c r="F9">
-        <v>1.078872617288866</v>
+        <v>1.018756260342122</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048322239727794</v>
+        <v>1.047573332770398</v>
       </c>
       <c r="J9">
-        <v>1.072171191183766</v>
+        <v>1.023112154742295</v>
       </c>
       <c r="K9">
-        <v>1.071575941119528</v>
+        <v>1.032738413049338</v>
       </c>
       <c r="L9">
-        <v>1.070518045877079</v>
+        <v>1.019011459960866</v>
       </c>
       <c r="M9">
-        <v>1.081901401939853</v>
+        <v>1.031552187199118</v>
       </c>
       <c r="N9">
-        <v>1.073693797255002</v>
+        <v>1.024565091354633</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.063644070042692</v>
+        <v>0.9789215337934516</v>
       </c>
       <c r="D10">
-        <v>1.066192686752266</v>
+        <v>1.005175619937911</v>
       </c>
       <c r="E10">
-        <v>1.065015319177091</v>
+        <v>0.9906949581312844</v>
       </c>
       <c r="F10">
-        <v>1.076278909692075</v>
+        <v>1.002583060954014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047482082700026</v>
+        <v>1.040768844092888</v>
       </c>
       <c r="J10">
-        <v>1.069791118424632</v>
+        <v>1.007997150866276</v>
       </c>
       <c r="K10">
-        <v>1.069533768855633</v>
+        <v>1.019452051546752</v>
       </c>
       <c r="L10">
-        <v>1.068360354895853</v>
+        <v>1.005234275257015</v>
       </c>
       <c r="M10">
-        <v>1.07958651093625</v>
+        <v>1.016905833532092</v>
       </c>
       <c r="N10">
-        <v>1.071310344519551</v>
+        <v>1.009428622439395</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.062377759455385</v>
+        <v>0.9703345087337739</v>
       </c>
       <c r="D11">
-        <v>1.065182141650657</v>
+        <v>0.9983423017254834</v>
       </c>
       <c r="E11">
-        <v>1.063953585570877</v>
+        <v>0.9836107366997303</v>
       </c>
       <c r="F11">
-        <v>1.075150921322787</v>
+        <v>0.9951087961805203</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047114244191853</v>
+        <v>1.037599738014861</v>
       </c>
       <c r="J11">
-        <v>1.068755283783097</v>
+        <v>1.000995688052988</v>
       </c>
       <c r="K11">
-        <v>1.068644329746528</v>
+        <v>1.013295547664226</v>
       </c>
       <c r="L11">
-        <v>1.067420062678542</v>
+        <v>0.9988484935223407</v>
       </c>
       <c r="M11">
-        <v>1.078578706115828</v>
+        <v>1.010123546709974</v>
       </c>
       <c r="N11">
-        <v>1.070273038874013</v>
+        <v>1.002417216745833</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061906616759626</v>
+        <v>0.9670491086752663</v>
       </c>
       <c r="D12">
-        <v>1.064806075133513</v>
+        <v>0.9957300825032627</v>
       </c>
       <c r="E12">
-        <v>1.063558373769193</v>
+        <v>0.9809020586287632</v>
       </c>
       <c r="F12">
-        <v>1.0747311800889</v>
+        <v>0.9922515701987595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046976996959126</v>
+        <v>1.036384603254175</v>
       </c>
       <c r="J12">
-        <v>1.06836972079072</v>
+        <v>0.9983165751055862</v>
       </c>
       <c r="K12">
-        <v>1.068313159640631</v>
+        <v>1.01093954716596</v>
       </c>
       <c r="L12">
-        <v>1.067069875943227</v>
+        <v>0.9964045252533419</v>
       </c>
       <c r="M12">
-        <v>1.078203525609089</v>
+        <v>1.00752873886093</v>
       </c>
       <c r="N12">
-        <v>1.069886928337963</v>
+        <v>0.9997342991507477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.062007714080202</v>
+        <v>0.9677584007904714</v>
       </c>
       <c r="D13">
-        <v>1.064886774872742</v>
+        <v>0.9962939323873801</v>
       </c>
       <c r="E13">
-        <v>1.06364318623369</v>
+        <v>0.9814867533034966</v>
       </c>
       <c r="F13">
-        <v>1.074821250558152</v>
+        <v>0.9928683052777728</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047006464943476</v>
+        <v>1.036647056170892</v>
       </c>
       <c r="J13">
-        <v>1.068452462236073</v>
+        <v>0.9988949861542696</v>
       </c>
       <c r="K13">
-        <v>1.068384232901828</v>
+        <v>1.011448207047029</v>
       </c>
       <c r="L13">
-        <v>1.067145034145443</v>
+        <v>0.9969321865191029</v>
       </c>
       <c r="M13">
-        <v>1.078284041287488</v>
+        <v>1.008088926750073</v>
       </c>
       <c r="N13">
-        <v>1.069969787285659</v>
+        <v>1.000313531609465</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.062338830672978</v>
+        <v>0.9700649717341805</v>
       </c>
       <c r="D14">
-        <v>1.06515107036227</v>
+        <v>0.9981279454880949</v>
       </c>
       <c r="E14">
-        <v>1.063920934426843</v>
+        <v>0.9833884759800746</v>
       </c>
       <c r="F14">
-        <v>1.075116240926298</v>
+        <v>0.9948743349639809</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04710291189773</v>
+        <v>1.037500099189979</v>
       </c>
       <c r="J14">
-        <v>1.068723429620351</v>
+        <v>1.000775896943233</v>
       </c>
       <c r="K14">
-        <v>1.068616971393697</v>
+        <v>1.013102267914625</v>
       </c>
       <c r="L14">
-        <v>1.067391135020572</v>
+        <v>0.9986480013528689</v>
       </c>
       <c r="M14">
-        <v>1.078547710764022</v>
+        <v>1.009910662243483</v>
       </c>
       <c r="N14">
-        <v>1.070241139474703</v>
+        <v>1.002197113507493</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.062542738657062</v>
+        <v>0.9714730176670384</v>
       </c>
       <c r="D15">
-        <v>1.065313817569957</v>
+        <v>0.9992478226201255</v>
       </c>
       <c r="E15">
-        <v>1.064091952773823</v>
+        <v>0.9845496272007647</v>
       </c>
       <c r="F15">
-        <v>1.075297893413162</v>
+        <v>0.9960992482225056</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047162254233178</v>
+        <v>1.038020501547237</v>
       </c>
       <c r="J15">
-        <v>1.068890273927719</v>
+        <v>1.001924060511811</v>
       </c>
       <c r="K15">
-        <v>1.068760263696353</v>
+        <v>1.01411193127891</v>
       </c>
       <c r="L15">
-        <v>1.067542643358461</v>
+        <v>0.9996953324644757</v>
       </c>
       <c r="M15">
-        <v>1.078710054746536</v>
+        <v>1.011022764793023</v>
       </c>
       <c r="N15">
-        <v>1.070408220720124</v>
+        <v>1.003346907600033</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.063728003023515</v>
+        <v>0.9794787278773596</v>
       </c>
       <c r="D16">
-        <v>1.066259655409875</v>
+        <v>1.005619295530052</v>
       </c>
       <c r="E16">
-        <v>1.065085666735491</v>
+        <v>0.9911548488382997</v>
       </c>
       <c r="F16">
-        <v>1.076353665664298</v>
+        <v>1.003068356460913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047506409033854</v>
+        <v>1.040974109626209</v>
       </c>
       <c r="J16">
-        <v>1.069859751140892</v>
+        <v>1.008451400173394</v>
       </c>
       <c r="K16">
-        <v>1.069592687747196</v>
+        <v>1.019851445869374</v>
       </c>
       <c r="L16">
-        <v>1.068422630990377</v>
+        <v>1.005648509603811</v>
       </c>
       <c r="M16">
-        <v>1.079653279324749</v>
+        <v>1.017345915339068</v>
       </c>
       <c r="N16">
-        <v>1.071379074702141</v>
+        <v>1.009883516832633</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064470126079297</v>
+        <v>0.9843438454207954</v>
       </c>
       <c r="D17">
-        <v>1.066851717301764</v>
+        <v>1.009494582125777</v>
       </c>
       <c r="E17">
-        <v>1.065707528343475</v>
+        <v>0.9951713494009828</v>
       </c>
       <c r="F17">
-        <v>1.077014598496107</v>
+        <v>1.007307212389674</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047721199736681</v>
+        <v>1.04276429024867</v>
       </c>
       <c r="J17">
-        <v>1.070466459998974</v>
+        <v>1.01241725197935</v>
       </c>
       <c r="K17">
-        <v>1.070113450723561</v>
+        <v>1.023338160026693</v>
       </c>
       <c r="L17">
-        <v>1.068973004698657</v>
+        <v>1.009264575389159</v>
       </c>
       <c r="M17">
-        <v>1.080243468683089</v>
+        <v>1.02118832138191</v>
       </c>
       <c r="N17">
-        <v>1.071986645156392</v>
+        <v>1.013855000603042</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.064902510633174</v>
+        <v>0.9871289412522433</v>
       </c>
       <c r="D18">
-        <v>1.067196616842611</v>
+        <v>1.011714091331225</v>
       </c>
       <c r="E18">
-        <v>1.066069726882538</v>
+        <v>0.9974713878814794</v>
       </c>
       <c r="F18">
-        <v>1.077399638458381</v>
+        <v>1.009734991380786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04784609377944</v>
+        <v>1.043787333530167</v>
       </c>
       <c r="J18">
-        <v>1.070819838041619</v>
+        <v>1.014687178031684</v>
       </c>
       <c r="K18">
-        <v>1.070416705753548</v>
+        <v>1.025333642026446</v>
       </c>
       <c r="L18">
-        <v>1.069293450983374</v>
+        <v>1.011333911678911</v>
       </c>
       <c r="M18">
-        <v>1.08058719242205</v>
+        <v>1.023387775641917</v>
       </c>
       <c r="N18">
-        <v>1.07234052503639</v>
+        <v>1.016128150210736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065049861329647</v>
+        <v>0.988069990847483</v>
       </c>
       <c r="D19">
-        <v>1.06731414455273</v>
+        <v>1.012464203195693</v>
       </c>
       <c r="E19">
-        <v>1.066193139159675</v>
+        <v>0.998248656211336</v>
       </c>
       <c r="F19">
-        <v>1.077530847868212</v>
+        <v>1.010555499089194</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047888613551735</v>
+        <v>1.04413270195647</v>
       </c>
       <c r="J19">
-        <v>1.070940245757167</v>
+        <v>1.015454088638988</v>
       </c>
       <c r="K19">
-        <v>1.070520024053409</v>
+        <v>1.026007792956525</v>
       </c>
       <c r="L19">
-        <v>1.069402617529032</v>
+        <v>1.012032982602759</v>
       </c>
       <c r="M19">
-        <v>1.080704305083148</v>
+        <v>1.024130905015689</v>
       </c>
       <c r="N19">
-        <v>1.072461103744705</v>
+        <v>1.016896149919067</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064390553455334</v>
+        <v>0.9838273905209894</v>
       </c>
       <c r="D20">
-        <v>1.066788240318607</v>
+        <v>1.009083089693881</v>
       </c>
       <c r="E20">
-        <v>1.06564086270266</v>
+        <v>0.9947448985967117</v>
       </c>
       <c r="F20">
-        <v>1.076943735521926</v>
+        <v>1.006857110849643</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04769819509678</v>
+        <v>1.042574437022735</v>
       </c>
       <c r="J20">
-        <v>1.070401418252392</v>
+        <v>1.011996295842164</v>
       </c>
       <c r="K20">
-        <v>1.07005762933404</v>
+        <v>1.022968082341131</v>
       </c>
       <c r="L20">
-        <v>1.068914014669069</v>
+        <v>1.008880786341361</v>
       </c>
       <c r="M20">
-        <v>1.080180201261719</v>
+        <v>1.020780448415625</v>
       </c>
       <c r="N20">
-        <v>1.071921511043069</v>
+        <v>1.013433446659857</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.06224134677208</v>
+        <v>0.9693885011226905</v>
       </c>
       <c r="D21">
-        <v>1.065073261535774</v>
+        <v>0.997590001960871</v>
       </c>
       <c r="E21">
-        <v>1.06383916776799</v>
+        <v>0.9828306869046967</v>
       </c>
       <c r="F21">
-        <v>1.075029394654819</v>
+        <v>0.9942859364643514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047074527732226</v>
+        <v>1.037249989163302</v>
       </c>
       <c r="J21">
-        <v>1.068643658939014</v>
+        <v>1.000224271358028</v>
       </c>
       <c r="K21">
-        <v>1.068548457730646</v>
+        <v>1.012617176792882</v>
       </c>
       <c r="L21">
-        <v>1.067318690008333</v>
+        <v>0.9981448051658073</v>
       </c>
       <c r="M21">
-        <v>1.078470089934926</v>
+        <v>1.009376378239482</v>
       </c>
       <c r="N21">
-        <v>1.070161255509848</v>
+        <v>1.001644704550684</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060885538820013</v>
+        <v>0.9597476929553473</v>
       </c>
       <c r="D22">
-        <v>1.063990897974751</v>
+        <v>0.9899294156143732</v>
       </c>
       <c r="E22">
-        <v>1.062701519657724</v>
+        <v>0.9748862235375798</v>
       </c>
       <c r="F22">
-        <v>1.073821387448255</v>
+        <v>0.9859068095352812</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046678837440549</v>
+        <v>1.033679497105881</v>
       </c>
       <c r="J22">
-        <v>1.067533801856606</v>
+        <v>0.9923622136364251</v>
       </c>
       <c r="K22">
-        <v>1.067594986139868</v>
+        <v>1.005703047829482</v>
       </c>
       <c r="L22">
-        <v>1.066310311570356</v>
+        <v>0.9909721638098372</v>
       </c>
       <c r="M22">
-        <v>1.077390023111017</v>
+        <v>1.001762722347439</v>
       </c>
       <c r="N22">
-        <v>1.069049822303081</v>
+        <v>0.9937714818053255</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.061604714316607</v>
+        <v>0.9649166575904937</v>
       </c>
       <c r="D23">
-        <v>1.064565072917748</v>
+        <v>0.9940352601998269</v>
       </c>
       <c r="E23">
-        <v>1.063305075147704</v>
+        <v>0.9791445035385852</v>
       </c>
       <c r="F23">
-        <v>1.074462197524609</v>
+        <v>0.9903977832237287</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0468889410274</v>
+        <v>1.035595184099954</v>
       </c>
       <c r="J23">
-        <v>1.06812260867195</v>
+        <v>0.9965775805787903</v>
       </c>
       <c r="K23">
-        <v>1.068100880748855</v>
+        <v>1.009410237782773</v>
       </c>
       <c r="L23">
-        <v>1.066845384195333</v>
+        <v>0.9948180592938822</v>
       </c>
       <c r="M23">
-        <v>1.077963053409858</v>
+        <v>1.005844607653324</v>
       </c>
       <c r="N23">
-        <v>1.06963946529164</v>
+        <v>0.9979928350522582</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064426510391643</v>
+        <v>0.9840609160418253</v>
       </c>
       <c r="D24">
-        <v>1.06681692419462</v>
+        <v>1.0092691510624</v>
       </c>
       <c r="E24">
-        <v>1.065670987651137</v>
+        <v>0.9949377246646247</v>
       </c>
       <c r="F24">
-        <v>1.076975756904526</v>
+        <v>1.00706062966979</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047708591107437</v>
+        <v>1.042660288515583</v>
       </c>
       <c r="J24">
-        <v>1.070430809377862</v>
+        <v>1.012186640849085</v>
       </c>
       <c r="K24">
-        <v>1.070082854153122</v>
+        <v>1.023135422118673</v>
       </c>
       <c r="L24">
-        <v>1.068940671507853</v>
+        <v>1.009054326598848</v>
       </c>
       <c r="M24">
-        <v>1.080208790703959</v>
+        <v>1.020964876999428</v>
       </c>
       <c r="N24">
-        <v>1.071950943907309</v>
+        <v>1.013624061978521</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067682170979499</v>
+        <v>1.0042358434114</v>
       </c>
       <c r="D25">
-        <v>1.069412867491277</v>
+        <v>1.025361982961714</v>
       </c>
       <c r="E25">
-        <v>1.06839605867154</v>
+        <v>1.011608316741933</v>
       </c>
       <c r="F25">
-        <v>1.079874197958879</v>
+        <v>1.024664684596947</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048644487803738</v>
+        <v>1.050038723535537</v>
       </c>
       <c r="J25">
-        <v>1.073089605919853</v>
+        <v>1.028621490612461</v>
       </c>
       <c r="K25">
-        <v>1.07236337743834</v>
+        <v>1.037578942929943</v>
       </c>
       <c r="L25">
-        <v>1.071349552262397</v>
+        <v>1.02402906211214</v>
       </c>
       <c r="M25">
-        <v>1.082794365580376</v>
+        <v>1.036891809271298</v>
       </c>
       <c r="N25">
-        <v>1.074613516245357</v>
+        <v>1.030082251113665</v>
       </c>
     </row>
   </sheetData>
